--- a/scripts/Report_Templates/The_Cliff_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/The_Cliff_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6931E656-0C6C-4AA1-B667-FFCA6E7FE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DC550-BB51-44B4-9E3A-F6A5202D5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2594,6 +2594,21 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2603,6 +2618,68 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2612,41 +2689,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2706,80 +2755,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3576,8 +3576,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3606,49 +3606,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3659,14 +3659,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -3690,12 +3690,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -3771,29 +3771,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -3813,10 +3813,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -3826,15 +3826,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -3857,27 +3857,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -3897,13 +3897,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -3926,13 +3926,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="311"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -3964,13 +3964,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -3999,11 +3999,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4019,11 +4019,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4056,13 +4056,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4092,11 +4092,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4109,11 +4109,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4181,22 +4181,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4281,23 +4281,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4317,9 +4317,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4353,9 +4353,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4386,9 +4386,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4427,9 +4427,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4460,9 +4460,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -4575,12 +4575,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -4613,9 +4613,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -4636,9 +4636,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -4663,15 +4663,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -4707,9 +4707,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -4732,9 +4732,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -4743,14 +4743,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -4809,11 +4809,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -4821,12 +4821,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -4840,22 +4840,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366" t="s">
+      <c r="E37" s="391" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -4870,23 +4870,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="381"/>
-      <c r="F38" s="382"/>
-      <c r="G38" s="383"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -4898,11 +4898,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4910,14 +4910,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="381"/>
-      <c r="F39" s="382"/>
-      <c r="G39" s="383"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -4950,9 +4950,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="381"/>
-      <c r="F40" s="382"/>
-      <c r="G40" s="383"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -4983,9 +4983,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="381"/>
-      <c r="F41" s="382"/>
-      <c r="G41" s="383"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5000,14 +5000,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5033,11 +5033,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5058,11 +5058,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5086,11 +5086,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5117,11 +5117,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5141,11 +5141,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5262,20 +5262,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
-      <c r="J51" s="410">
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6421,6 +6421,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="L8:L9"/>
@@ -6437,57 +6488,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.70866141732283472" top="0.74803149606299213" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6506,8 +6506,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6555,28 +6555,28 @@
       <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6587,14 +6587,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -6618,12 +6618,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -6699,29 +6699,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -6741,10 +6741,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -6754,15 +6754,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -6785,27 +6785,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -6825,13 +6825,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -6854,13 +6854,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -6892,13 +6892,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -6927,11 +6927,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6947,11 +6947,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -6984,13 +6984,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7020,11 +7020,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7037,11 +7037,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7109,22 +7109,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7209,23 +7209,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7245,9 +7245,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7278,9 +7278,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7311,9 +7311,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7352,9 +7352,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7385,9 +7385,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7500,12 +7500,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -7538,9 +7538,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7561,9 +7561,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -7588,15 +7588,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -7631,9 +7631,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -7656,9 +7656,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -7667,14 +7667,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -7702,11 +7702,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -7733,11 +7733,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -7745,12 +7745,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -7764,22 +7764,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366" t="s">
+      <c r="E37" s="391" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -7794,23 +7794,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="381"/>
-      <c r="F38" s="382"/>
-      <c r="G38" s="383"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -7822,11 +7822,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7834,14 +7834,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="381"/>
-      <c r="F39" s="382"/>
-      <c r="G39" s="383"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -7874,9 +7874,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="381"/>
-      <c r="F40" s="382"/>
-      <c r="G40" s="383"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -7907,9 +7907,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="381"/>
-      <c r="F41" s="382"/>
-      <c r="G41" s="383"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -7924,14 +7924,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -7957,11 +7957,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -7982,11 +7982,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8010,11 +8010,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8041,11 +8041,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8065,11 +8065,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -8184,20 +8184,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
-      <c r="J51" s="410">
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9336,51 +9336,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:M4"/>
@@ -9397,11 +9357,51 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9421,8 +9421,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9452,49 +9452,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9505,14 +9505,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -9536,12 +9536,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9617,29 +9617,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9659,10 +9659,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9672,15 +9672,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -9703,27 +9703,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9743,13 +9743,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9772,13 +9772,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -9810,13 +9810,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -9845,11 +9845,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9865,11 +9865,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -9902,13 +9902,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -9938,11 +9938,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -9955,11 +9955,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -10027,22 +10027,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -10127,23 +10127,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -10163,9 +10163,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -10196,9 +10196,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10229,9 +10229,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10270,9 +10270,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="367"/>
-      <c r="G24" s="368"/>
+      <c r="E24" s="391"/>
+      <c r="F24" s="392"/>
+      <c r="G24" s="393"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10303,9 +10303,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10418,12 +10418,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -10456,9 +10456,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10479,9 +10479,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10506,15 +10506,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10549,9 +10549,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10574,9 +10574,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10585,14 +10585,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -10620,11 +10620,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -10651,11 +10651,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -10663,12 +10663,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10682,20 +10682,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10710,23 +10710,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="381"/>
-      <c r="F38" s="382"/>
-      <c r="G38" s="383"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -10738,11 +10738,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,14 +10750,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="381"/>
-      <c r="F39" s="382"/>
-      <c r="G39" s="383"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -10790,9 +10790,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="381"/>
-      <c r="F40" s="382"/>
-      <c r="G40" s="383"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -10823,9 +10823,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="381"/>
-      <c r="F41" s="382"/>
-      <c r="G41" s="383"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -10840,14 +10840,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -10873,11 +10873,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -10898,11 +10898,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -10926,11 +10926,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -10957,11 +10957,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -10981,11 +10981,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -11100,20 +11100,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
-      <c r="J51" s="410">
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12262,6 +12262,60 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -12275,60 +12329,6 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -12347,8 +12347,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12377,49 +12377,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12430,14 +12430,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -12461,12 +12461,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12542,29 +12542,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12584,10 +12584,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12597,15 +12597,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -12628,27 +12628,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12668,13 +12668,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12697,13 +12697,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12735,13 +12735,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12770,11 +12770,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12790,11 +12790,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12827,13 +12827,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12863,11 +12863,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12880,11 +12880,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12952,22 +12952,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -13052,23 +13052,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -13088,9 +13088,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -13121,9 +13121,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -13154,9 +13154,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -13195,9 +13195,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -13228,9 +13228,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -13344,12 +13344,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -13382,9 +13382,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -13405,9 +13405,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13432,15 +13432,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13475,9 +13475,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13500,9 +13500,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13511,14 +13511,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -13546,11 +13546,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -13577,11 +13577,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -13589,12 +13589,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13608,20 +13608,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13636,23 +13636,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="381"/>
-      <c r="F38" s="382"/>
-      <c r="G38" s="383"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13664,11 +13664,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13676,14 +13676,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="381"/>
-      <c r="F39" s="382"/>
-      <c r="G39" s="383"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13716,9 +13716,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="381"/>
-      <c r="F40" s="382"/>
-      <c r="G40" s="383"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13749,9 +13749,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="381"/>
-      <c r="F41" s="382"/>
-      <c r="G41" s="383"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13766,14 +13766,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -13799,11 +13799,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13824,11 +13824,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -13852,11 +13852,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -13883,11 +13883,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -13907,11 +13907,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -14026,20 +14026,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
-      <c r="J51" s="410">
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -15177,57 +15177,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -15244,6 +15193,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -15263,7 +15263,7 @@
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15292,49 +15292,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15345,14 +15345,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -15376,12 +15376,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -15457,29 +15457,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -15499,10 +15499,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -15512,15 +15512,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -15543,27 +15543,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -15583,13 +15583,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -15612,13 +15612,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -15650,13 +15650,13 @@
       </c>
       <c r="B12" s="191"/>
       <c r="C12" s="192"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="398"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="413"/>
       <c r="F12" s="192"/>
       <c r="G12" s="192"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15685,11 +15685,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15705,11 +15705,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15742,13 +15742,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15781,11 +15781,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15798,11 +15798,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15870,22 +15870,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15970,23 +15970,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -16006,9 +16006,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -16039,9 +16039,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -16072,9 +16072,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -16113,9 +16113,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -16146,9 +16146,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -16261,12 +16261,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -16299,9 +16299,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -16322,9 +16322,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -16349,15 +16349,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -16392,9 +16392,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -16417,9 +16417,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -16428,14 +16428,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -16494,11 +16494,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -16506,12 +16506,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -16525,20 +16525,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -16553,23 +16553,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="366"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="368"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -16581,11 +16581,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16593,14 +16593,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="366"/>
-      <c r="F39" s="367"/>
-      <c r="G39" s="368"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16633,9 +16633,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="366"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="368"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16666,9 +16666,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="366"/>
-      <c r="F41" s="367"/>
-      <c r="G41" s="368"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16683,14 +16683,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -16716,11 +16716,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -16741,11 +16741,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -16769,11 +16769,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -16801,11 +16801,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -16825,11 +16825,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -16944,20 +16944,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
-      <c r="J51" s="410">
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18092,57 +18092,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -18159,6 +18108,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -18180,7 +18180,7 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -18210,49 +18210,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18263,14 +18263,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -18294,12 +18294,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -18375,29 +18375,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -18417,10 +18417,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -18430,15 +18430,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -18461,27 +18461,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -18501,13 +18501,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -18530,13 +18530,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -18568,13 +18568,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -18603,11 +18603,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18623,11 +18623,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -18660,15 +18660,15 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -18698,11 +18698,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -18715,11 +18715,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -18787,22 +18787,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18887,23 +18887,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18923,9 +18923,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18956,9 +18956,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18989,9 +18989,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -19030,9 +19030,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -19063,9 +19063,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -19179,12 +19179,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -19217,9 +19217,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -19240,9 +19240,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -19267,15 +19267,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -19310,9 +19310,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -19335,9 +19335,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -19346,14 +19346,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -19381,11 +19381,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="378"/>
-      <c r="O34" s="378"/>
-      <c r="P34" s="378"/>
-      <c r="Q34" s="378"/>
-      <c r="R34" s="378"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -19412,11 +19412,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="W35" s="174"/>
     </row>
@@ -19425,12 +19425,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -19444,20 +19444,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -19472,23 +19472,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="366"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="368"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -19500,11 +19500,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19512,14 +19512,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="366"/>
-      <c r="F39" s="367"/>
-      <c r="G39" s="368"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -19552,9 +19552,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="366"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="368"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -19585,9 +19585,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="366"/>
-      <c r="F41" s="367"/>
-      <c r="G41" s="368"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -19602,14 +19602,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -19635,11 +19635,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -19657,11 +19657,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -19685,11 +19685,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -19716,11 +19716,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -19740,11 +19740,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -19856,21 +19856,21 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="410">
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -21065,57 +21065,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -21132,6 +21081,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="68" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -21150,8 +21150,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -21180,49 +21180,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384"/>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="387" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="389"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21233,14 +21233,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="390" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -21264,12 +21264,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="390"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -21345,29 +21345,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="393" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="393" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="394"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="394"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="393" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="395"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -21387,10 +21387,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="414" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="402"/>
+      <c r="E8" s="415"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -21400,15 +21400,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="421"/>
-      <c r="J8" s="422"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="380"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="411" t="s">
+      <c r="L8" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="366" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -21431,27 +21431,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="403">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="405"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="404"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="403">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="404"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="412"/>
-      <c r="M9" s="414"/>
+      <c r="L9" s="365"/>
+      <c r="M9" s="367"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -21471,13 +21471,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="400"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="400"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -21500,13 +21500,13 @@
       </c>
       <c r="B11" s="286"/>
       <c r="C11" s="285"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="409"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="395"/>
       <c r="F11" s="285"/>
       <c r="G11" s="285"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21538,13 +21538,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -21573,11 +21573,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="415">
+      <c r="D13" s="373">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="416">
+      <c r="E13" s="374">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21593,11 +21593,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="415">
+      <c r="I13" s="373">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="416">
+      <c r="J13" s="374">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21630,13 +21630,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="376"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="418"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21666,11 +21666,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="419">
+      <c r="D15" s="377">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="420"/>
+      <c r="E15" s="378"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21683,11 +21683,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="419">
+      <c r="I15" s="377">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="420"/>
+      <c r="J15" s="378"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21755,22 +21755,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="371">
         <v>40200</v>
       </c>
-      <c r="D17" s="373"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="372">
+      <c r="D17" s="419"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="371">
         <v>40300</v>
       </c>
-      <c r="G17" s="374"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="372">
+      <c r="I17" s="371">
         <v>40600</v>
       </c>
-      <c r="J17" s="374"/>
+      <c r="J17" s="372"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -21855,23 +21855,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="368" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="363" t="s">
+      <c r="E20" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="365"/>
-      <c r="J20" s="363" t="s">
+      <c r="F20" s="369"/>
+      <c r="G20" s="369"/>
+      <c r="H20" s="370"/>
+      <c r="J20" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="364"/>
-      <c r="L20" s="365"/>
+      <c r="K20" s="369"/>
+      <c r="L20" s="370"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21891,9 +21891,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="368"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21924,9 +21924,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="366"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="368"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21957,9 +21957,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="366"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="368"/>
+      <c r="E23" s="391"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="393"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21998,9 +21998,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -22031,9 +22031,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -22146,12 +22146,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="370"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -22184,9 +22184,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -22207,9 +22207,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="371"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -22234,15 +22234,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -22277,9 +22277,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="371"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -22302,9 +22302,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -22313,14 +22313,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="379" t="s">
+      <c r="N33" s="417" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="379"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -22379,11 +22379,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="378"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="378"/>
-      <c r="Q35" s="378"/>
-      <c r="R35" s="378"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -22391,12 +22391,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="368" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="364"/>
-      <c r="G36" s="364"/>
-      <c r="H36" s="365"/>
+      <c r="F36" s="369"/>
+      <c r="G36" s="369"/>
+      <c r="H36" s="370"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -22410,20 +22410,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="378"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="378"/>
-      <c r="Q36" s="378"/>
-      <c r="R36" s="378"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="366"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="368"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -22438,23 +22438,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
-      <c r="Q37" s="378"/>
-      <c r="R37" s="378"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="380"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="366"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="368"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -22466,11 +22466,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="378"/>
-      <c r="O38" s="378"/>
-      <c r="P38" s="378"/>
-      <c r="Q38" s="378"/>
-      <c r="R38" s="378"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22478,14 +22478,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="366"/>
-      <c r="F39" s="367"/>
-      <c r="G39" s="368"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -22518,9 +22518,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="366"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="368"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22551,9 +22551,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="366"/>
-      <c r="F41" s="367"/>
-      <c r="G41" s="368"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22568,14 +22568,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="379" t="s">
+      <c r="N41" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="379"/>
-      <c r="P41" s="379"/>
-      <c r="Q41" s="379"/>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -22601,11 +22601,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
-      <c r="P42" s="378"/>
-      <c r="Q42" s="378"/>
-      <c r="R42" s="378"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -22625,11 +22625,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -22653,11 +22653,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
-      <c r="P44" s="378"/>
-      <c r="Q44" s="378"/>
-      <c r="R44" s="378"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -22684,11 +22684,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="378"/>
-      <c r="R45" s="378"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -22708,11 +22708,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
-      <c r="P46" s="378"/>
-      <c r="Q46" s="378"/>
-      <c r="R46" s="378"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -22825,21 +22825,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="410">
+      <c r="E51" s="363">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="410"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="410"/>
+      <c r="F51" s="363"/>
+      <c r="G51" s="363"/>
+      <c r="H51" s="363"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="410">
+      <c r="J51" s="363">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="363"/>
+      <c r="M51" s="363"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -24027,57 +24027,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -24094,6 +24043,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/scripts/Report_Templates/The_Cliff_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/The_Cliff_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DC550-BB51-44B4-9E3A-F6A5202D5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599947C9-F5B0-4711-A42C-C0A158349E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2594,21 +2594,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2618,34 +2603,119 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,12 +2725,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2671,24 +2735,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2697,89 +2743,43 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3606,49 +3606,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3659,14 +3659,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -3690,12 +3690,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -3771,29 +3771,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -3813,10 +3813,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -3826,15 +3826,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -3857,27 +3857,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -3897,13 +3897,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -3926,13 +3926,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="311"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -3964,13 +3964,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -3999,11 +3999,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4019,11 +4019,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4056,13 +4056,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4092,11 +4092,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4109,11 +4109,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4181,22 +4181,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4281,23 +4281,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4317,9 +4317,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4353,9 +4353,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4386,9 +4386,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4427,9 +4427,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4460,9 +4460,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -4575,12 +4575,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -4613,9 +4613,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -4636,9 +4636,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -4663,15 +4663,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -4707,9 +4707,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -4732,9 +4732,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -4743,14 +4743,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -4809,11 +4809,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -4821,12 +4821,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -4840,22 +4840,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391" t="s">
+      <c r="E37" s="366" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -4870,23 +4870,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="396"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="398"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="383"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -4898,11 +4898,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4915,9 +4915,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="396"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="398"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="383"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -4950,9 +4950,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="396"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="398"/>
+      <c r="E40" s="381"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="383"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -4983,9 +4983,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="396"/>
-      <c r="F41" s="397"/>
-      <c r="G41" s="398"/>
+      <c r="E41" s="381"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="383"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5000,14 +5000,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5033,11 +5033,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5058,11 +5058,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5086,11 +5086,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5117,11 +5117,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5141,11 +5141,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5262,20 +5262,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="J51" s="363">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6421,16 +6421,47 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="N41:S41"/>
     <mergeCell ref="N42:R42"/>
@@ -6447,47 +6478,16 @@
     <mergeCell ref="N38:R38"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.70866141732283472" top="0.74803149606299213" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6555,28 +6555,28 @@
       <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6587,14 +6587,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -6618,12 +6618,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -6699,29 +6699,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -6741,10 +6741,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -6754,15 +6754,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -6785,27 +6785,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -6825,13 +6825,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -6854,13 +6854,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -6892,13 +6892,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -6927,11 +6927,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6947,11 +6947,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -6984,13 +6984,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7020,11 +7020,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7037,11 +7037,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7109,22 +7109,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7209,23 +7209,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7245,9 +7245,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7278,9 +7278,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7311,9 +7311,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7352,9 +7352,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7385,9 +7385,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7500,12 +7500,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -7538,9 +7538,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7561,9 +7561,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -7588,15 +7588,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -7631,9 +7631,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -7656,9 +7656,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -7667,14 +7667,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -7702,11 +7702,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -7733,11 +7733,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -7745,12 +7745,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -7764,22 +7764,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391" t="s">
+      <c r="E37" s="366" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -7794,23 +7794,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="396"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="398"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="383"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -7822,11 +7822,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7839,9 +7839,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="396"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="398"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="383"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -7874,9 +7874,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="396"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="398"/>
+      <c r="E40" s="381"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="383"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -7907,9 +7907,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="396"/>
-      <c r="F41" s="397"/>
-      <c r="G41" s="398"/>
+      <c r="E41" s="381"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="383"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -7924,14 +7924,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -7957,11 +7957,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -7982,11 +7982,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8010,11 +8010,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8041,11 +8041,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8065,11 +8065,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -8184,20 +8184,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="J51" s="363">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9336,11 +9336,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:M4"/>
@@ -9357,51 +9397,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9452,49 +9452,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9505,14 +9505,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -9536,12 +9536,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9617,29 +9617,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9659,10 +9659,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9672,15 +9672,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -9703,27 +9703,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9743,13 +9743,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9772,13 +9772,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -9810,13 +9810,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -9845,11 +9845,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9865,11 +9865,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -9902,13 +9902,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -9938,11 +9938,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -9955,11 +9955,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -10027,22 +10027,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -10127,23 +10127,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -10163,9 +10163,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -10196,9 +10196,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10229,9 +10229,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10270,9 +10270,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="367"/>
+      <c r="G24" s="368"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10303,9 +10303,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10418,12 +10418,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -10456,9 +10456,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10479,9 +10479,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10506,15 +10506,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10549,9 +10549,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10574,9 +10574,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10585,14 +10585,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -10620,11 +10620,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -10651,11 +10651,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -10663,12 +10663,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10682,20 +10682,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10710,23 +10710,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="396"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="398"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="383"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -10738,11 +10738,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10755,9 +10755,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="396"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="398"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="383"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -10790,9 +10790,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="396"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="398"/>
+      <c r="E40" s="381"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="383"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -10823,9 +10823,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="396"/>
-      <c r="F41" s="397"/>
-      <c r="G41" s="398"/>
+      <c r="E41" s="381"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="383"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -10840,14 +10840,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -10873,11 +10873,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -10898,11 +10898,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -10926,11 +10926,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -10957,11 +10957,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -10981,11 +10981,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -11100,20 +11100,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="J51" s="363">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12262,60 +12262,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -12329,6 +12275,60 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -12377,49 +12377,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12430,14 +12430,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -12461,12 +12461,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12542,29 +12542,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12584,10 +12584,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12597,15 +12597,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -12628,27 +12628,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12668,13 +12668,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12697,13 +12697,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12735,13 +12735,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12770,11 +12770,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12790,11 +12790,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12827,13 +12827,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12863,11 +12863,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12880,11 +12880,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12952,22 +12952,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -13052,23 +13052,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -13088,9 +13088,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -13121,9 +13121,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -13154,9 +13154,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -13195,9 +13195,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -13228,9 +13228,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -13344,12 +13344,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -13382,9 +13382,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -13405,9 +13405,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13432,15 +13432,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13475,9 +13475,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13500,9 +13500,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13511,14 +13511,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -13546,11 +13546,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -13577,11 +13577,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -13589,12 +13589,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13608,20 +13608,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13636,23 +13636,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="396"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="398"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="383"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13664,11 +13664,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13681,9 +13681,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="396"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="398"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="383"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13716,9 +13716,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="396"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="398"/>
+      <c r="E40" s="381"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="383"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13749,9 +13749,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="396"/>
-      <c r="F41" s="397"/>
-      <c r="G41" s="398"/>
+      <c r="E41" s="381"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="383"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13766,14 +13766,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -13799,11 +13799,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13824,11 +13824,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -13852,11 +13852,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -13883,11 +13883,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -13907,11 +13907,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -14026,20 +14026,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="J51" s="363">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -15177,6 +15177,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -15193,57 +15244,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -15292,49 +15292,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15345,14 +15345,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -15376,12 +15376,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -15457,29 +15457,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -15499,10 +15499,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -15512,15 +15512,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -15543,27 +15543,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -15583,13 +15583,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -15612,13 +15612,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -15650,13 +15650,13 @@
       </c>
       <c r="B12" s="191"/>
       <c r="C12" s="192"/>
-      <c r="D12" s="412"/>
-      <c r="E12" s="413"/>
+      <c r="D12" s="397"/>
+      <c r="E12" s="398"/>
       <c r="F12" s="192"/>
       <c r="G12" s="192"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15685,11 +15685,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15705,11 +15705,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15742,13 +15742,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15781,11 +15781,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15798,11 +15798,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15870,22 +15870,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15970,23 +15970,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -16006,9 +16006,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -16039,9 +16039,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -16072,9 +16072,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -16113,9 +16113,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -16146,9 +16146,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -16261,12 +16261,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -16299,9 +16299,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -16322,9 +16322,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -16349,15 +16349,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -16392,9 +16392,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -16417,9 +16417,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -16428,14 +16428,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -16494,11 +16494,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -16506,12 +16506,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -16525,20 +16525,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -16553,23 +16553,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="367"/>
+      <c r="G38" s="368"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -16581,11 +16581,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16598,9 +16598,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="367"/>
+      <c r="G39" s="368"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16633,9 +16633,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="368"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16666,9 +16666,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="367"/>
+      <c r="G41" s="368"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16683,14 +16683,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -16716,11 +16716,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -16741,11 +16741,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -16769,11 +16769,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -16801,11 +16801,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -16825,11 +16825,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -16944,20 +16944,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="J51" s="363">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18092,6 +18092,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -18108,57 +18159,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -18210,49 +18210,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18263,14 +18263,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -18294,12 +18294,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -18375,29 +18375,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -18417,10 +18417,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -18430,15 +18430,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -18461,27 +18461,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -18501,13 +18501,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -18530,13 +18530,13 @@
       </c>
       <c r="B11" s="191"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="413"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -18568,13 +18568,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -18603,11 +18603,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18623,11 +18623,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -18660,15 +18660,15 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -18698,11 +18698,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -18715,11 +18715,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -18787,22 +18787,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18887,23 +18887,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18923,9 +18923,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18956,9 +18956,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18989,9 +18989,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -19030,9 +19030,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -19063,9 +19063,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -19179,12 +19179,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -19217,9 +19217,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -19240,9 +19240,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -19267,15 +19267,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -19310,9 +19310,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -19335,9 +19335,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -19346,14 +19346,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -19381,11 +19381,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="378"/>
+      <c r="O34" s="378"/>
+      <c r="P34" s="378"/>
+      <c r="Q34" s="378"/>
+      <c r="R34" s="378"/>
       <c r="S34" s="76"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -19412,11 +19412,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
       <c r="W35" s="174"/>
     </row>
@@ -19425,12 +19425,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -19444,20 +19444,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -19472,23 +19472,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="367"/>
+      <c r="G38" s="368"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -19500,11 +19500,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19517,9 +19517,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="367"/>
+      <c r="G39" s="368"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -19552,9 +19552,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="368"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -19585,9 +19585,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="367"/>
+      <c r="G41" s="368"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -19602,14 +19602,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -19635,11 +19635,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -19657,11 +19657,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -19685,11 +19685,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -19716,11 +19716,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -19740,11 +19740,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -19856,21 +19856,21 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="363">
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -21065,6 +21065,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -21081,57 +21132,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="68" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -21150,7 +21150,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -21180,49 +21180,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="399"/>
-      <c r="S1" s="399"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
+      <c r="R1" s="384"/>
+      <c r="S1" s="384"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="402" t="s">
+      <c r="A2" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="404"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="389"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21233,14 +21233,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="390" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="205" t="s">
@@ -21264,12 +21264,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="405"/>
+      <c r="H4" s="390"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="407"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -21345,29 +21345,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="408" t="s">
+      <c r="C7" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="408" t="s">
+      <c r="D7" s="396"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="409"/>
+      <c r="G7" s="394"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="408" t="s">
+      <c r="I7" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="409"/>
+      <c r="J7" s="394"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="410"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -21387,10 +21387,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="414" t="s">
+      <c r="D8" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="415"/>
+      <c r="E8" s="402"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -21400,15 +21400,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="379"/>
-      <c r="J8" s="380"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="422"/>
       <c r="K8" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="411" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="M8" s="413" t="s">
         <v>96</v>
       </c>
       <c r="N8" s="4"/>
@@ -21431,27 +21431,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="403">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="405"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="403">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="404"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="365"/>
-      <c r="M9" s="367"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="414"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -21471,13 +21471,13 @@
       </c>
       <c r="B10" s="251"/>
       <c r="C10" s="252"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="400"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="400"/>
       <c r="K10" s="253"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -21500,13 +21500,13 @@
       </c>
       <c r="B11" s="286"/>
       <c r="C11" s="285"/>
-      <c r="D11" s="394"/>
-      <c r="E11" s="395"/>
+      <c r="D11" s="408"/>
+      <c r="E11" s="409"/>
       <c r="F11" s="285"/>
       <c r="G11" s="285"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21538,13 +21538,13 @@
       </c>
       <c r="B12" s="286"/>
       <c r="C12" s="285"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="395"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="285"/>
       <c r="G12" s="285"/>
       <c r="H12" s="285"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="395"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
       <c r="K12" s="284"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -21573,11 +21573,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="373">
+      <c r="D13" s="415">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="416">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21593,11 +21593,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="373">
+      <c r="I13" s="415">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="374">
+      <c r="J13" s="416">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21630,13 +21630,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="376"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="418"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21666,11 +21666,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="419">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="378"/>
+      <c r="E15" s="420"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21683,11 +21683,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="377">
+      <c r="I15" s="419">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="378"/>
+      <c r="J15" s="420"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21755,22 +21755,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="371">
+      <c r="C17" s="372">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="371">
+      <c r="D17" s="373"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="372">
         <v>40300</v>
       </c>
-      <c r="G17" s="372"/>
+      <c r="G17" s="374"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="371">
+      <c r="I17" s="372">
         <v>40600</v>
       </c>
-      <c r="J17" s="372"/>
+      <c r="J17" s="374"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -21855,23 +21855,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="370"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="363" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="J20" s="368" t="s">
+      <c r="F20" s="364"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="365"/>
+      <c r="J20" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="365"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21891,9 +21891,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="393"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="368"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21924,9 +21924,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="368"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21957,9 +21957,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="393"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="368"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21998,9 +21998,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="371"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -22031,9 +22031,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="371"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -22146,12 +22146,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="368" t="s">
+      <c r="E28" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>97</v>
@@ -22184,9 +22184,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -22207,9 +22207,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="371"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -22234,15 +22234,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="371"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -22277,9 +22277,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="369"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="371"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -22302,9 +22302,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="369"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="371"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -22313,14 +22313,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="379"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -22379,11 +22379,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="378"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="378"/>
+      <c r="Q35" s="378"/>
+      <c r="R35" s="378"/>
       <c r="S35" s="76"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -22391,12 +22391,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="368" t="s">
+      <c r="E36" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="369"/>
-      <c r="G36" s="369"/>
-      <c r="H36" s="370"/>
+      <c r="F36" s="364"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -22410,20 +22410,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="378"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="378"/>
+      <c r="Q36" s="378"/>
+      <c r="R36" s="378"/>
       <c r="S36" s="76"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="367"/>
+      <c r="G37" s="368"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -22438,23 +22438,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="378"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="378"/>
+      <c r="Q37" s="378"/>
+      <c r="R37" s="378"/>
       <c r="S37" s="76"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="380"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="367"/>
+      <c r="G38" s="368"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -22466,11 +22466,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="378"/>
+      <c r="O38" s="378"/>
+      <c r="P38" s="378"/>
+      <c r="Q38" s="378"/>
+      <c r="R38" s="378"/>
       <c r="S38" s="76"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22483,9 +22483,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="367"/>
+      <c r="G39" s="368"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -22518,9 +22518,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="368"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22551,9 +22551,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="367"/>
+      <c r="G41" s="368"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22568,14 +22568,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="379" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="379"/>
+      <c r="P41" s="379"/>
+      <c r="Q41" s="379"/>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -22601,11 +22601,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
+      <c r="P42" s="378"/>
+      <c r="Q42" s="378"/>
+      <c r="R42" s="378"/>
       <c r="S42" s="76"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -22625,11 +22625,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
       <c r="S43" s="76"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -22653,11 +22653,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="378"/>
+      <c r="O44" s="378"/>
+      <c r="P44" s="378"/>
+      <c r="Q44" s="378"/>
+      <c r="R44" s="378"/>
       <c r="S44" s="76"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -22684,11 +22684,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="378"/>
+      <c r="O45" s="378"/>
+      <c r="P45" s="378"/>
+      <c r="Q45" s="378"/>
+      <c r="R45" s="378"/>
       <c r="S45" s="76"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -22708,11 +22708,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378"/>
+      <c r="R46" s="378"/>
       <c r="S46" s="76"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -22825,21 +22825,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="363">
+      <c r="E51" s="410">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="363">
+      <c r="J51" s="410">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -24027,6 +24027,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -24043,57 +24094,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24113,8 +24113,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -24146,7 +24146,7 @@
     </row>
     <row r="2" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="424">
-        <f>+SUN!J3</f>
+        <f>SUN!J3</f>
         <v>0</v>
       </c>
       <c r="B2" s="425"/>
@@ -24190,28 +24190,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="108">
-        <f>B4+1</f>
-        <v>1</v>
+        <f>TUE!J3</f>
+        <v>0</v>
       </c>
       <c r="D4" s="108">
-        <f t="shared" ref="D4:H4" si="0">C4+1</f>
-        <v>2</v>
+        <f>WED!J3</f>
+        <v>0</v>
       </c>
       <c r="E4" s="108">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>THU!J3</f>
+        <v>0</v>
       </c>
       <c r="F4" s="108">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>FRI!J3</f>
+        <v>0</v>
       </c>
       <c r="G4" s="108">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SAT!J3</f>
+        <v>0</v>
       </c>
       <c r="H4" s="108">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUN!J3</f>
+        <v>0</v>
       </c>
       <c r="I4" s="107" t="s">
         <v>71</v>
@@ -24230,23 +24230,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="208">
-        <f t="shared" ref="D5:H5" si="1">SUM(D10:D12)+D7+D8+D9</f>
+        <f t="shared" ref="D5:H5" si="0">SUM(D10:D12)+D7+D8+D9</f>
         <v>0</v>
       </c>
       <c r="E5" s="208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="209">
@@ -24267,19 +24267,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="210">
-        <f t="shared" ref="D6:G6" si="2">SUM(D10:D12)</f>
+        <f t="shared" ref="D6:G6" si="1">SUM(D10:D12)</f>
         <v>0</v>
       </c>
       <c r="E6" s="210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="210">
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="239">
-        <f t="shared" ref="I7:I8" si="3">SUM(B7:H7)</f>
+        <f t="shared" ref="I7:I8" si="2">SUM(B7:H7)</f>
         <v>0</v>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="317">
-        <f t="shared" ref="I9" si="4">SUM(B9:H9)</f>
+        <f t="shared" ref="I9" si="3">SUM(B9:H9)</f>
         <v>0</v>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="245">
-        <f t="shared" ref="I14:I19" si="5">SUM(B14:H14)</f>
+        <f t="shared" ref="I14:I19" si="4">SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -24559,7 +24559,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24670,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24683,31 +24683,31 @@
         <v>0</v>
       </c>
       <c r="C19" s="211">
-        <f t="shared" ref="C19:H19" si="6">SUM(C16:C18)</f>
+        <f t="shared" ref="C19:H19" si="5">SUM(C16:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E19" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F19" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G19" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H19" s="211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="122">
-        <f t="shared" ref="I22:I28" si="7">SUM(B22:H22)</f>
+        <f t="shared" ref="I22:I28" si="6">SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="186"/>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -24941,7 +24941,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -24978,7 +24978,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -25015,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -25028,27 +25028,27 @@
         <v>0</v>
       </c>
       <c r="C29" s="214">
-        <f t="shared" ref="C29:H29" si="8">SUM(C21:C28)</f>
+        <f t="shared" ref="C29:H29" si="7">SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E29" s="214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F29" s="214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G29" s="214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H29" s="215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="216">
@@ -25095,27 +25095,27 @@
         <v>0</v>
       </c>
       <c r="C31" s="248">
-        <f t="shared" ref="C31:H31" si="9">C29-C30</f>
+        <f t="shared" ref="C31:H31" si="8">C29-C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E31" s="248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F31" s="248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H31" s="249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I31" s="250">
@@ -25139,35 +25139,35 @@
         <v>85</v>
       </c>
       <c r="B33" s="141">
-        <f t="shared" ref="B33:I34" si="10">IF(B11=0,0,B17/B11)</f>
+        <f t="shared" ref="B33:I34" si="9">IF(B11=0,0,B17/B11)</f>
         <v>0</v>
       </c>
       <c r="C33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I33" s="142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -25176,35 +25176,35 @@
         <v>86</v>
       </c>
       <c r="B34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I34" s="142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -25213,35 +25213,35 @@
         <v>87</v>
       </c>
       <c r="B35" s="144">
-        <f t="shared" ref="B35:I35" si="11">IF(B6=0,0,B29/B6)</f>
+        <f t="shared" ref="B35:I35" si="10">IF(B6=0,0,B29/B6)</f>
         <v>0</v>
       </c>
       <c r="C35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I35" s="255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="177">
-        <f t="shared" ref="D40:D51" si="12">+IF(C40=0,0,(B40-C40)/C40)</f>
+        <f t="shared" ref="D40:D51" si="11">+IF(C40=0,0,(B40-C40)/C40)</f>
         <v>0</v>
       </c>
       <c r="E40" s="148"/>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E41" s="148"/>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E42" s="148"/>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E43" s="148"/>
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E44" s="148"/>
@@ -25422,7 +25422,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E45" s="148"/>
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E46" s="151"/>
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E47" s="148"/>
@@ -25504,7 +25504,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
